--- a/storage/app/templates/kompetensi_template_export.xlsx
+++ b/storage/app/templates/kompetensi_template_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD44678C-F738-4688-AEA8-AA712A9FBD12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E434223-5DD4-4EDF-879A-8CF734A49366}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -217,23 +217,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,239 +763,241 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR1" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:43" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3" t="s">
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="14"/>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+    <row r="2" spans="1:43" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>47</v>
       </c>
     </row>

--- a/storage/app/templates/kompetensi_template_export.xlsx
+++ b/storage/app/templates/kompetensi_template_export.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E434223-5DD4-4EDF-879A-8CF734A49366}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +166,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,67 +359,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +468,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7974BC0F-7D55-4BCC-BE42-9363413E83B9}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -755,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -763,252 +778,247 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="22.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27" style="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27" style="26" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="12" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="12" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="12" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="12" t="s">
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="12" t="s">
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="14"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="6"/>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="7" t="s">
+    <row r="2" spans="1:43" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:Q1"/>
@@ -1018,6 +1028,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
